--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9700"/>
+    <workbookView windowWidth="23256" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -155,6 +155,58 @@
   </si>
   <si>
     <t>{"errcode":0,"errmsg":"ok"}</t>
+  </si>
+  <si>
+    <t>case04</t>
+  </si>
+  <si>
+    <t>测试能否正确修改用户标签</t>
+  </si>
+  <si>
+    <t>修改标签接口</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"tag": {"id" : 571,"name": "chao"} } </t>
+  </si>
+  <si>
+    <t>case05</t>
+  </si>
+  <si>
+    <t>测试能否正确获取标签下粉丝列表</t>
+  </si>
+  <si>
+    <t>获取用户身上的标签列表</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/getidlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "openid" : "ocYxcuBt0mRugKZ7tGAHPnUaOW7Y"} </t>
+  </si>
+  <si>
+    <t>{"errcode":-1,"errmsg":(.+?)}</t>
+  </si>
+  <si>
+    <t>case06</t>
+  </si>
+  <si>
+    <t>测试能否正确设置用户备注</t>
+  </si>
+  <si>
+    <t>设置用户备注名</t>
+  </si>
+  <si>
+    <t>/cgi-bin/user/info/updateremark</t>
+  </si>
+  <si>
+    <t>{"openid":"oDF3iY9ffA-hqb2vVvbr7qxf6A0Q","remark":"pangzi"
+}</t>
+  </si>
+  <si>
+    <t>{"errcode":40013,"errmsg":(.+?)}</t>
   </si>
 </sst>
 </file>
@@ -163,11 +215,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,10 +228,131 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,74 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -266,66 +371,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,54 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,6 +599,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,11 +642,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,148 +677,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,60 +826,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1101,30 +1146,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.1339285714286" customWidth="1"/>
-    <col min="2" max="2" width="35.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="11.1517857142857" customWidth="1"/>
-    <col min="4" max="4" width="16.0178571428571" customWidth="1"/>
-    <col min="5" max="5" width="21.2678571428571" customWidth="1"/>
-    <col min="6" max="6" width="10.4196428571429" customWidth="1"/>
-    <col min="7" max="7" width="19.8392857142857" customWidth="1"/>
-    <col min="8" max="8" width="26.7053571428571" customWidth="1"/>
-    <col min="9" max="9" width="26.3392857142857" customWidth="1"/>
-    <col min="10" max="10" width="12.7946428571429" customWidth="1"/>
-    <col min="11" max="11" width="10.4107142857143" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="35.1" customWidth="1"/>
+    <col min="3" max="3" width="11.15" customWidth="1"/>
+    <col min="4" max="4" width="16.0166666666667" customWidth="1"/>
+    <col min="5" max="5" width="23.2833333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.8416666666667" customWidth="1"/>
+    <col min="8" max="8" width="26.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="26.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.7916666666667" customWidth="1"/>
+    <col min="11" max="11" width="10.4083333333333" customWidth="1"/>
     <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="18.1696428571429" customWidth="1"/>
-    <col min="14" max="14" width="37.9375" customWidth="1"/>
+    <col min="13" max="13" width="18.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="37.9416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1171,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1" spans="4:14">
+    <row r="6" ht="18" customHeight="1" spans="4:14">
       <c r="D6" t="s">
         <v>33</v>
       </c>
@@ -1346,30 +1393,246 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="8:8">
-      <c r="H8" s="1"/>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="1:14">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:14">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="4:14">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 F11 F3:F4 F5:F6 F7:F8">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J7 J8 J9 J10 J11 J12 J3:J4 J5:J6">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C7 C9 C11 C2:C3">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6 M7 M9 M11">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
